--- a/files/import_from_site/new/04-09-2023.xlsx
+++ b/files/import_from_site/new/04-09-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,21 +764,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Веб камеры</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GENIUS</t>
+          <t>AFOX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Веб-камера Genius FaceCam-2000X Full HD Black (32200006400)</t>
+          <t>GT 610 (AF610-2048D3L7-V5)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>949</v>
+        <v>1589</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -786,14 +786,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>24.08</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>891</v>
+        <v>1584</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
@@ -802,13 +802,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32200006400</v>
+        <v>7</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>AF610-2048D3L7-V5</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>9972455</v>
+        <v>8425795</v>
       </c>
     </row>
     <row r="8">
@@ -819,16 +821,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFOX</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GT 610 (AF610-2048D3L7-V5)</t>
+          <t>GeForce RTX 3060 GAMING OC 12G rev. 2.0 (GV-N3060GAMING OC-12GD)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1589</v>
+        <v>13499</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -836,14 +838,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>42</v>
+        <v>356.26</v>
       </c>
       <c r="I8" t="n">
-        <v>1584</v>
+        <v>13432</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
@@ -852,15 +854,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>AF610-2048D3L7-V5</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3699432</v>
       </c>
       <c r="N8" t="n">
-        <v>8425795</v>
+        <v>6913461</v>
       </c>
     </row>
     <row r="9">
@@ -871,16 +871,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GeForce RTX 3060 GAMING OC 12G rev. 2.0 (GV-N3060GAMING OC-12GD)</t>
+          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13499</v>
+        <v>7699</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -888,49 +888,49 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-69.2%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>356.26</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>13432</v>
+        <v>24987</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="M9" t="n">
-        <v>3699432</v>
+        <v>17050086</v>
       </c>
       <c r="N9" t="n">
-        <v>6913461</v>
+        <v>-4682109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Видео адаптеры</t>
+          <t>Жесткие диски</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>TRANSCEND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
+          <t>USB 2TB (TS2TSJ25H3P) StoreJet 25H3P</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7699</v>
+        <v>3539</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -938,29 +938,29 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-69.2%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>675.3200000000001</v>
+        <v>74.59</v>
       </c>
       <c r="I10" t="n">
-        <v>24987</v>
+        <v>2813</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>17050086</v>
+        <v>6107418</v>
       </c>
       <c r="N10" t="n">
-        <v>-4682109</v>
+        <v>714129</v>
       </c>
     </row>
     <row r="11">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>IPEGA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B760 Bloody Black Green Switches</t>
+          <t>iPega PG-9156 Batman 3 in 1 Bluetooth PC/Android/iOS Black (SGWGCP9156)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1599</v>
+        <v>1199</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13.1%</t>
+          <t>25.7%</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>38.19</v>
+        <v>25.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1414</v>
+        <v>954</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
@@ -1894,13 +1894,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>74</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1604693</v>
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PG-9156</t>
+        </is>
       </c>
       <c r="N28" t="n">
-        <v>5433267</v>
+        <v>7691607</v>
       </c>
     </row>
     <row r="29">
@@ -1911,16 +1913,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DARK PROJECT</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
+          <t>B760 Bloody Black Green Switches</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1449</v>
+        <v>1599</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
@@ -1928,31 +1930,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>43.07</v>
+        <v>38.19</v>
       </c>
       <c r="I29" t="n">
-        <v>1624</v>
+        <v>1414</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1604693</v>
       </c>
       <c r="N29" t="n">
-        <v>-9774357</v>
+        <v>5433267</v>
       </c>
     </row>
     <row r="30">
@@ -1963,16 +1963,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>DARK PROJECT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Element HB-195 UA Black (45189)</t>
+          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>249</v>
+        <v>1449</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
@@ -1980,29 +1980,31 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>-10.8%</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>43.07</v>
       </c>
       <c r="I30" t="n">
-        <v>237</v>
+        <v>1624</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>824394</v>
+        <v>7</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N30" t="n">
-        <v>8533394</v>
+        <v>-9774357</v>
       </c>
     </row>
     <row r="31">
@@ -2013,16 +2015,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KBS-WM-03-UA</t>
+          <t>Element HB-195 UA Black (45189)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>399</v>
+        <v>249</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
@@ -2030,29 +2032,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9.609999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1604021</v>
+        <v>824394</v>
       </c>
       <c r="N31" t="n">
-        <v>3340270</v>
+        <v>8533394</v>
       </c>
     </row>
     <row r="32">
@@ -2063,16 +2065,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
+          <t>KBS-WM-03-UA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2999</v>
+        <v>399</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
@@ -2080,14 +2082,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>77.17</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>2910</v>
+        <v>368</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -2096,13 +2098,13 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>66172</v>
+        <v>1604021</v>
       </c>
       <c r="N32" t="n">
-        <v>9382884</v>
+        <v>3340270</v>
       </c>
     </row>
     <row r="33">
@@ -2113,16 +2115,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
+          <t>MX Keys Advanced Wireless Illuminated Graphite (920-009417)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>439</v>
+        <v>4999</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
@@ -2130,14 +2132,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15.12</v>
+        <v>99.45</v>
       </c>
       <c r="I33" t="n">
-        <v>560</v>
+        <v>3799</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
@@ -2146,13 +2148,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>63</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3713515</v>
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>U0386946</t>
+        </is>
       </c>
       <c r="N33" t="n">
-        <v>7205162</v>
+        <v>4531972</v>
       </c>
     </row>
     <row r="34">
@@ -2163,16 +2167,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
+          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>919</v>
+        <v>2999</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
@@ -2180,101 +2184,99 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>21.11</v>
+        <v>77.17</v>
       </c>
       <c r="I34" t="n">
-        <v>807</v>
+        <v>2910</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>U0566268</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>66172</v>
       </c>
       <c r="N34" t="n">
-        <v>8494217</v>
+        <v>9382884</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COOLING BABY</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7015 3PS</t>
+          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>439</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>-21.5%</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.14</v>
+        <v>15.12</v>
       </c>
       <c r="I35" t="n">
-        <v>45</v>
+        <v>560</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="M35" t="n">
-        <v>45131</v>
+        <v>3713515</v>
       </c>
       <c r="N35" t="n">
-        <v>2184075</v>
+        <v>7205162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
+          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>789</v>
+        <v>919</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -2282,29 +2284,31 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>17.81</v>
+        <v>21.11</v>
       </c>
       <c r="I36" t="n">
-        <v>663</v>
+        <v>807</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>105</v>
-      </c>
-      <c r="M36" t="n">
-        <v>47936</v>
+        <v>5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>U0566268</t>
+        </is>
       </c>
       <c r="N36" t="n">
-        <v>4311907</v>
+        <v>8494217</v>
       </c>
     </row>
     <row r="37">
@@ -2315,31 +2319,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>COOLING BABY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
+          <t>7015 3PS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>729</v>
+        <v>49</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>16.8</v>
+        <v>1.14</v>
       </c>
       <c r="I37" t="n">
-        <v>622</v>
+        <v>45</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
@@ -2348,13 +2352,13 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="M37" t="n">
-        <v>427337</v>
+        <v>45131</v>
       </c>
       <c r="N37" t="n">
-        <v>10031050</v>
+        <v>2184075</v>
       </c>
     </row>
     <row r="38">
@@ -2370,26 +2374,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>89</v>
+        <v>789</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.81</v>
+        <v>17.81</v>
       </c>
       <c r="I38" t="n">
-        <v>69</v>
+        <v>663</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
@@ -2398,11 +2402,13 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>132</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>105</v>
+      </c>
+      <c r="M38" t="n">
+        <v>47936</v>
+      </c>
       <c r="N38" t="n">
-        <v>262689</v>
+        <v>4311907</v>
       </c>
     </row>
     <row r="39">
@@ -2418,26 +2424,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XFan 120 (DP-FDC-XF120)</t>
+          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>149</v>
+        <v>729</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>16.8</v>
       </c>
       <c r="I39" t="n">
-        <v>119</v>
+        <v>622</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -2446,11 +2452,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>41</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="M39" t="n">
+        <v>427337</v>
+      </c>
       <c r="N39" t="n">
-        <v>371011</v>
+        <v>10031050</v>
       </c>
     </row>
     <row r="40">
@@ -2461,46 +2469,44 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EKWB</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-91.8%</t>
+          <t>29.9%</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>60.64</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>1686</v>
+        <v>69</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>852</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3831109832639</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>-6363959</v>
+        <v>262689</v>
       </c>
     </row>
     <row r="41">
@@ -2511,16 +2517,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRIME</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
+          <t>XFan 120 (DP-FDC-XF120)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -2528,29 +2534,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.15</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>18</v>
-      </c>
-      <c r="M41" t="n">
-        <v>459285</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>10093211</v>
+        <v>371011</v>
       </c>
     </row>
     <row r="42">
@@ -2561,46 +2565,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>EKWB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GMX-WFBK-WT</t>
+          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>-91.8%</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2.57</v>
+        <v>60.64</v>
       </c>
       <c r="I42" t="n">
-        <v>96</v>
+        <v>1686</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>96</v>
+        <v>852</v>
       </c>
       <c r="M42" t="n">
-        <v>3688449</v>
+        <v>3831109832639</v>
       </c>
       <c r="N42" t="n">
-        <v>4463224</v>
+        <v>-6363959</v>
       </c>
     </row>
     <row r="43">
@@ -2611,16 +2615,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TFD-4010 M 12 Z (0400097)</t>
+          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
@@ -2628,14 +2632,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>14.9%</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2.9</v>
+        <v>1.15</v>
       </c>
       <c r="I43" t="n">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
@@ -2644,50 +2648,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>98</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0400097</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="M43" t="n">
+        <v>459285</v>
       </c>
       <c r="N43" t="n">
-        <v>9249871</v>
+        <v>10093211</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ARCTIC</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MX-4 4г, со шпателем (ACTCP00031B)</t>
+          <t>GMX-WFBK-WT</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-7.3%</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.14</v>
+        <v>2.57</v>
       </c>
       <c r="I44" t="n">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
@@ -2696,35 +2698,33 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>ACTCP00031B</t>
-        </is>
+        <v>96</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3688449</v>
       </c>
       <c r="N44" t="n">
-        <v>7059344</v>
+        <v>4463224</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>TFD-4010 M 12 Z (0400097)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
@@ -2732,14 +2732,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -2748,33 +2748,35 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>150</v>
-      </c>
-      <c r="M45" t="n">
-        <v>444082</v>
+        <v>98</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0400097</t>
+        </is>
       </c>
       <c r="N45" t="n">
-        <v>9436713</v>
+        <v>9249871</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>ARCTIC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Abyss-TR</t>
+          <t>MX-4 4г, со шпателем (ACTCP00031B)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3499</v>
+        <v>159</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
@@ -2782,14 +2784,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>94.65000000000001</v>
+        <v>4.14</v>
       </c>
       <c r="I46" t="n">
-        <v>3569</v>
+        <v>157</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
@@ -2798,48 +2800,50 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>125</v>
-      </c>
-      <c r="M46" t="n">
-        <v>37491</v>
+        <v>6</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>ACTCP00031B</t>
+        </is>
       </c>
       <c r="N46" t="n">
-        <v>7513003</v>
+        <v>7059344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pardo Black </t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1559</v>
+        <v>119</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>40.26</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>1561</v>
+        <v>124</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -2848,13 +2852,13 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M47" t="n">
-        <v>2973145</v>
+        <v>444082</v>
       </c>
       <c r="N47" t="n">
-        <v>2783798</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="48">
@@ -2870,11 +2874,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ST-610G</t>
+          <t>Abyss-TR</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1339</v>
+        <v>3499</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
@@ -2882,14 +2886,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>38.99</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>1443</v>
+        <v>3569</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2898,13 +2902,13 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M48" t="n">
-        <v>44016</v>
+        <v>37491</v>
       </c>
       <c r="N48" t="n">
-        <v>7732390</v>
+        <v>7513003</v>
       </c>
     </row>
     <row r="49">
@@ -2915,16 +2919,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pillar Black Radiation</t>
+          <t xml:space="preserve">Pardo Black </t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2399</v>
+        <v>1559</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
@@ -2932,51 +2936,49 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-17.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>79</v>
+        <v>40.26</v>
       </c>
       <c r="I49" t="n">
-        <v>2923</v>
+        <v>1561</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>52</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>U0747285</t>
-        </is>
+        <v>158</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2973145</v>
       </c>
       <c r="N49" t="n">
-        <v>-9577112</v>
+        <v>2783798</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Корпуса - аксессуары</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CABLEXPERT</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
+          <t>ST-610G</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>109</v>
+        <v>1339</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -2984,14 +2986,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-12.9%</t>
+          <t>-7.2%</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.07</v>
+        <v>38.99</v>
       </c>
       <c r="I50" t="n">
-        <v>125</v>
+        <v>1443</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
@@ -3000,33 +3002,33 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="M50" t="n">
-        <v>252144</v>
+        <v>44016</v>
       </c>
       <c r="N50" t="n">
-        <v>5325742</v>
+        <v>7732390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASROCK</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B760M PG Lightning</t>
+          <t>Pillar Black Radiation</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5249</v>
+        <v>2399</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
@@ -3034,49 +3036,51 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-17.9%</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>137.03</v>
+        <v>79</v>
       </c>
       <c r="I51" t="n">
-        <v>5167</v>
+        <v>2923</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>28</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3703814</v>
+        <v>52</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>U0747285</t>
+        </is>
       </c>
       <c r="N51" t="n">
-        <v>10610047</v>
+        <v>-9577112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Корпуса - аксессуары</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIOSTAR</t>
+          <t>CABLEXPERT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TZ590-BTC DUO</t>
+          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4749</v>
+        <v>109</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
@@ -3084,14 +3088,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-37.2%</t>
+          <t>-12.9%</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>270</v>
+        <v>3.07</v>
       </c>
       <c r="I52" t="n">
-        <v>7560</v>
+        <v>125</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
@@ -3100,15 +3104,13 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>481</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>TZ590-BTC_DUO</t>
-        </is>
+        <v>230</v>
+      </c>
+      <c r="M52" t="n">
+        <v>252144</v>
       </c>
       <c r="N52" t="n">
-        <v>8199628</v>
+        <v>5325742</v>
       </c>
     </row>
     <row r="53">
@@ -3119,16 +3121,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>ASROCK</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N4120I H</t>
+          <t>B760M PG Lightning</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3799</v>
+        <v>5249</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
@@ -3136,14 +3138,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>100.99</v>
+        <v>137.03</v>
       </c>
       <c r="I53" t="n">
-        <v>3737</v>
+        <v>5167</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
@@ -3152,13 +3154,13 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M53" t="n">
-        <v>3703020</v>
+        <v>3703814</v>
       </c>
       <c r="N53" t="n">
-        <v>10040970</v>
+        <v>10610047</v>
       </c>
     </row>
     <row r="54">
@@ -3169,16 +3171,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NZXT</t>
+          <t>BIOSTAR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
+          <t>TZ590-BTC DUO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7149</v>
+        <v>4749</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -3186,14 +3188,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-37.2%</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>185.03</v>
+        <v>270</v>
       </c>
       <c r="I54" t="n">
-        <v>6976</v>
+        <v>7560</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
@@ -3202,35 +3204,35 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>N5-Z69XT-W1</t>
+          <t>TZ590-BTC_DUO</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>10216528</v>
+        <v>8199628</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E 609</t>
+          <t>N4120I H</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2899</v>
+        <v>3799</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
@@ -3238,14 +3240,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-24.7%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>146.19</v>
+        <v>100.99</v>
       </c>
       <c r="I55" t="n">
-        <v>3853</v>
+        <v>3737</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -3254,33 +3256,33 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>657</v>
+        <v>54</v>
       </c>
       <c r="M55" t="n">
-        <v>4522</v>
+        <v>3703020</v>
       </c>
       <c r="N55" t="n">
-        <v>6599676</v>
+        <v>10040970</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>NZXT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8999</v>
+        <v>7149</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
@@ -3288,14 +3290,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-26.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>447.85</v>
+        <v>185.03</v>
       </c>
       <c r="I56" t="n">
-        <v>12204</v>
+        <v>6976</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
@@ -3304,35 +3306,35 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>787</v>
+        <v>34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>N5-Z69XT-W1</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3235478</v>
+        <v>10216528</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
+          <t>E 609</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1039</v>
+        <v>2899</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
@@ -3340,14 +3342,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-24.7%</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>32</v>
+        <v>146.19</v>
       </c>
       <c r="I57" t="n">
-        <v>1184</v>
+        <v>3853</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -3356,50 +3358,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>76</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>F4-2666C19S-16GRS</t>
-        </is>
+        <v>657</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4522</v>
       </c>
       <c r="N57" t="n">
-        <v>7258586</v>
+        <v>6599676</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>599</v>
+        <v>8999</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-4.8%</t>
+          <t>-26.3%</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>17</v>
+        <v>447.85</v>
       </c>
       <c r="I58" t="n">
-        <v>629</v>
+        <v>12204</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
@@ -3408,15 +3408,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>33</v>
+        <v>787</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>U0103402</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1857277</v>
+        <v>3235478</v>
       </c>
     </row>
     <row r="59">
@@ -3427,16 +3427,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GOLDEN MEMORY</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
+          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>459</v>
+        <v>1039</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
@@ -3444,14 +3444,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-12.3%</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I59" t="n">
-        <v>481</v>
+        <v>1184</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
@@ -3460,15 +3460,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>U0275940</t>
+          <t>F4-2666C19S-16GRS</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2630535</v>
+        <v>7258586</v>
       </c>
     </row>
     <row r="60">
@@ -3479,31 +3479,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
+          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>349</v>
+        <v>599</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-65.6%</t>
+          <t>-4.8%</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>1013</v>
+        <v>629</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
@@ -3512,13 +3512,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>304</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3309121</v>
+        <v>33</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>U0103402</t>
+        </is>
       </c>
       <c r="N60" t="n">
-        <v>2775878</v>
+        <v>1857277</v>
       </c>
     </row>
     <row r="61">
@@ -3529,31 +3531,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>GOLDEN MEMORY</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>599</v>
+        <v>459</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>-4.6%</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>17.2</v>
+        <v>13</v>
       </c>
       <c r="I61" t="n">
-        <v>637</v>
+        <v>481</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
@@ -3562,13 +3564,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>70</v>
-      </c>
-      <c r="M61" t="n">
-        <v>6329811</v>
+        <v>31</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>U0275940</t>
+        </is>
       </c>
       <c r="N61" t="n">
-        <v>2124692</v>
+        <v>2630535</v>
       </c>
     </row>
     <row r="62">
@@ -3584,11 +3588,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
+          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>549</v>
+        <v>349</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
@@ -3596,14 +3600,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-13.3%</t>
+          <t>-65.6%</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>16.8</v>
+        <v>24</v>
       </c>
       <c r="I62" t="n">
-        <v>634</v>
+        <v>1013</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
@@ -3612,11 +3616,13 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>131</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>304</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3309121</v>
+      </c>
       <c r="N62" t="n">
-        <v>542951</v>
+        <v>2775878</v>
       </c>
     </row>
     <row r="63">
@@ -3627,48 +3633,46 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
+          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-83.5%</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>109</v>
+        <v>17.2</v>
       </c>
       <c r="I63" t="n">
-        <v>3031</v>
+        <v>637</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>830</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>U0102692</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6329811</v>
       </c>
       <c r="N63" t="n">
-        <v>-1463462</v>
+        <v>2124692</v>
       </c>
     </row>
     <row r="64">
@@ -3679,16 +3683,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>949</v>
+        <v>549</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
@@ -3696,31 +3700,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-81.2%</t>
+          <t>-13.3%</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>181.9</v>
+        <v>16.8</v>
       </c>
       <c r="I64" t="n">
-        <v>5057</v>
+        <v>634</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>839</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>KSM26RD4/32MEI</t>
-        </is>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>-3392440</v>
+        <v>542951</v>
       </c>
     </row>
     <row r="65">
@@ -3731,16 +3731,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
+          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>7749</v>
+        <v>499</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
@@ -3748,31 +3748,31 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-43.0%</t>
+          <t>-83.5%</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>344.3</v>
+        <v>109</v>
       </c>
       <c r="I65" t="n">
-        <v>13600</v>
+        <v>3031</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>259</v>
+        <v>830</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>KF552C40BBK2-64</t>
+          <t>U0102692</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>8803411</v>
+        <v>-1463462</v>
       </c>
     </row>
     <row r="66">
@@ -3783,16 +3783,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DRAM 8GB 3200MHz DDR4 CL16 DIMM FURY Beast RGB EAN: 740617319439 (KF432C16BBA/8)</t>
+          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
@@ -3800,31 +3800,31 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-26.5%</t>
+          <t>-81.2%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>34.43</v>
+        <v>181.9</v>
       </c>
       <c r="I66" t="n">
-        <v>1360</v>
+        <v>5057</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>261</v>
+        <v>839</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>KF432C16BBA/8</t>
+          <t>KSM26RD4/32MEI</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>7183218</v>
+        <v>-3392440</v>
       </c>
     </row>
     <row r="67">
@@ -3840,11 +3840,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>KF556C40BBK2-16 (KF556C40BBK2-16)</t>
+          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3049</v>
+        <v>7749</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
@@ -3852,14 +3852,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-43.0%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>77.54000000000001</v>
+        <v>344.3</v>
       </c>
       <c r="I67" t="n">
-        <v>2924</v>
+        <v>13600</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
@@ -3868,13 +3868,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>28</v>
-      </c>
-      <c r="M67" t="n">
-        <v>3701564</v>
+        <v>259</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>KF552C40BBK2-64</t>
+        </is>
       </c>
       <c r="N67" t="n">
-        <v>8806743</v>
+        <v>8803411</v>
       </c>
     </row>
     <row r="68">
@@ -3890,11 +3892,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SO-DIMM 16GB/3200 DDR4 Kingston Fury Impact (KF432S20IB/16)</t>
+          <t>DRAM 8GB 3200MHz DDR4 CL16 DIMM FURY Beast RGB EAN: 740617319439 (KF432C16BBA/8)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1339</v>
+        <v>999</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
@@ -3902,49 +3904,51 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>-26.5%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>34.5</v>
+        <v>34.43</v>
       </c>
       <c r="I68" t="n">
-        <v>1277</v>
+        <v>1360</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>61</v>
-      </c>
-      <c r="M68" t="n">
-        <v>372109</v>
+        <v>261</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>KF432C16BBA/8</t>
+        </is>
       </c>
       <c r="N68" t="n">
-        <v>7451189</v>
+        <v>7183218</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RX-X8BT Black</t>
+          <t>KF556C40BBK2-16 (KF556C40BBK2-16)</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>349</v>
+        <v>3049</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
@@ -3952,51 +3956,49 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-14.9%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10.37</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>410</v>
+        <v>2924</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>265</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>606ba31258e1d3016e42cbfd</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3701564</v>
       </c>
       <c r="N69" t="n">
-        <v>7262515</v>
+        <v>8806743</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RX-X8BT Red</t>
+          <t>SO-DIMM 16GB/3200 DDR4 Kingston Fury Impact (KF432S20IB/16)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>319</v>
+        <v>1339</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
@@ -4004,31 +4006,29 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-18.4%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>10.37</v>
+        <v>34.5</v>
       </c>
       <c r="I70" t="n">
-        <v>391</v>
+        <v>1277</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ФотПз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>131</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>606ba19f58e1d3016e42cb61</t>
-        </is>
+        <v>61</v>
+      </c>
+      <c r="M70" t="n">
+        <v>372109</v>
       </c>
       <c r="N70" t="n">
-        <v>7262499</v>
+        <v>7451189</v>
       </c>
     </row>
     <row r="71">
@@ -4039,16 +4039,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HARMAN-KARDON</t>
+          <t>GOLON</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
+          <t>RX-X8BT Black</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>12999</v>
+        <v>349</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
@@ -4056,31 +4056,31 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>-14.9%</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>326.92</v>
+        <v>10.37</v>
       </c>
       <c r="I71" t="n">
-        <v>12750</v>
+        <v>410</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>HKCITATION300GRYEU</t>
+          <t>606ba31258e1d3016e42cbfd</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4307073</v>
+        <v>7262515</v>
       </c>
     </row>
     <row r="72">
@@ -4091,16 +4091,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>IDANCE</t>
+          <t>GOLON</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
+          <t>RX-X8BT Red</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
@@ -4108,29 +4108,31 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-18.4%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8.73</v>
+        <v>10.37</v>
       </c>
       <c r="I72" t="n">
-        <v>240</v>
+        <v>391</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотПз</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>593</v>
-      </c>
-      <c r="M72" t="n">
-        <v>155764</v>
+        <v>131</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>606ba19f58e1d3016e42cb61</t>
+        </is>
       </c>
       <c r="N72" t="n">
-        <v>3299547</v>
+        <v>7262499</v>
       </c>
     </row>
     <row r="73">
@@ -4141,16 +4143,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HARMAN-KARDON</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
+          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2499</v>
+        <v>12999</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
@@ -4158,14 +4160,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>50</v>
+        <v>326.92</v>
       </c>
       <c r="I73" t="n">
-        <v>1861</v>
+        <v>12750</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
@@ -4174,15 +4176,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>JBLCLIP4ECOWHT</t>
+          <t>HKCITATION300GRYEU</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>9760781</v>
+        <v>4307073</v>
       </c>
     </row>
     <row r="74">
@@ -4193,16 +4195,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>IDANCE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Flip Essential 2 (JBLFLIPES2)</t>
+          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3499</v>
+        <v>189</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
@@ -4210,14 +4212,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>-21.3%</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>82.73999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="I74" t="n">
-        <v>3078</v>
+        <v>240</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
@@ -4226,13 +4228,13 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>104</v>
+        <v>593</v>
       </c>
       <c r="M74" t="n">
-        <v>1384165</v>
+        <v>155764</v>
       </c>
       <c r="N74" t="n">
-        <v>9151222</v>
+        <v>3299547</v>
       </c>
     </row>
     <row r="75">
@@ -4248,11 +4250,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Go Essential Black (JBLGOESBLK)</t>
+          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>999</v>
+        <v>2499</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
@@ -4260,29 +4262,31 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>22.6</v>
+        <v>50</v>
       </c>
       <c r="I75" t="n">
-        <v>853</v>
+        <v>1861</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>35</v>
-      </c>
-      <c r="M75" t="n">
-        <v>6814832</v>
+        <v>104</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>JBLCLIP4ECOWHT</t>
+        </is>
       </c>
       <c r="N75" t="n">
-        <v>8962442</v>
+        <v>9760781</v>
       </c>
     </row>
     <row r="76">
@@ -4298,11 +4302,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
+          <t>Flip Essential 2 (JBLFLIPES2)</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9499</v>
+        <v>3499</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
@@ -4310,14 +4314,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>201.64</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>7602</v>
+        <v>3078</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -4326,15 +4330,13 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>133</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>JBLPULSE5BLK</t>
-        </is>
+        <v>104</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1384165</v>
       </c>
       <c r="N76" t="n">
-        <v>9648680</v>
+        <v>9151222</v>
       </c>
     </row>
     <row r="77">
@@ -4350,11 +4352,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Xtreme 3 Black (JBLXTREME3BLKEU)</t>
+          <t>Go Essential Black (JBLGOESBLK)</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10999</v>
+        <v>999</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
@@ -4362,27 +4364,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20.4%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>246.81</v>
+        <v>22.6</v>
       </c>
       <c r="I77" t="n">
-        <v>9132</v>
+        <v>853</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>12</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="M77" t="n">
+        <v>6814832</v>
+      </c>
       <c r="N77" t="n">
-        <v>5668153</v>
+        <v>8962442</v>
       </c>
     </row>
     <row r="78">
@@ -4398,11 +4402,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
+          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5499</v>
+        <v>9499</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
@@ -4410,14 +4414,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>113.79</v>
+        <v>201.64</v>
       </c>
       <c r="I78" t="n">
-        <v>4290</v>
+        <v>7602</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
@@ -4426,15 +4430,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>5f4d44b0ea159163986f0b8d</t>
+          <t>JBLPULSE5BLK</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>5408227</v>
+        <v>9648680</v>
       </c>
     </row>
     <row r="79">
@@ -4445,16 +4449,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REAL-EL</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S-2030 Black</t>
+          <t>Xtreme 3 Black (JBLXTREME3BLKEU)</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6249</v>
+        <v>10999</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
@@ -4462,29 +4466,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>20.4%</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>209.37</v>
+        <v>246.81</v>
       </c>
       <c r="I79" t="n">
-        <v>7998</v>
+        <v>9132</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
-      </c>
-      <c r="M79" t="n">
-        <v>428453</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>-9078520</v>
+        <v>5668153</v>
       </c>
     </row>
     <row r="80">
@@ -4495,16 +4497,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
+          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>749</v>
+        <v>5499</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
@@ -4512,51 +4514,51 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>20.14</v>
+        <v>113.79</v>
       </c>
       <c r="I80" t="n">
-        <v>760</v>
+        <v>4290</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>BHR4802GL</t>
+          <t>5f4d44b0ea159163986f0b8d</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>6126020</v>
+        <v>5408227</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>MICROLAB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G3-200N Black</t>
+          <t>M-100 Black</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>289</v>
+        <v>1349</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
@@ -4564,51 +4566,47 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>28.5%</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7.02</v>
+        <v>27.48</v>
       </c>
       <c r="I81" t="n">
-        <v>260</v>
+        <v>1050</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>48</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>0202631</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>711316</v>
+        <v>-224185</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>REAL-EL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>OP-720 USB Black</t>
+          <t>S-2030 Black</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>159</v>
+        <v>6249</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
@@ -4616,47 +4614,49 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>-21.9%</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3.74</v>
+        <v>209.37</v>
       </c>
       <c r="I82" t="n">
-        <v>143</v>
+        <v>7998</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>428453</v>
+      </c>
       <c r="N82" t="n">
-        <v>83150</v>
+        <v>-9078520</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Point MM-756 Black (52756)</t>
+          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>109</v>
+        <v>749</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
@@ -4664,14 +4664,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26.1%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2.26</v>
+        <v>20.14</v>
       </c>
       <c r="I83" t="n">
-        <v>87</v>
+        <v>760</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
@@ -4680,13 +4680,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
-      </c>
-      <c r="M83" t="n">
-        <v>620102</v>
+        <v>35</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>BHR4802GL</t>
+        </is>
       </c>
       <c r="N83" t="n">
-        <v>4085857</v>
+        <v>6126020</v>
       </c>
     </row>
     <row r="84">
@@ -4697,16 +4699,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
+          <t>G3-200N Black</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
@@ -4714,29 +4716,31 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>4.8</v>
+        <v>7.02</v>
       </c>
       <c r="I84" t="n">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>70</v>
-      </c>
-      <c r="M84" t="n">
-        <v>207633</v>
+        <v>48</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0202631</t>
+        </is>
       </c>
       <c r="N84" t="n">
-        <v>2823917</v>
+        <v>711316</v>
       </c>
     </row>
     <row r="85">
@@ -4747,16 +4751,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Мишка Defender Accura MM-935, 4кн., 1600dpi, сіра (52936)</t>
+          <t>OP-720 USB Black</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
@@ -4764,29 +4768,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="I85" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>137</v>
-      </c>
-      <c r="M85" t="n">
-        <v>164179</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>2550713</v>
+        <v>83150</v>
       </c>
     </row>
     <row r="86">
@@ -4797,16 +4799,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MUSW-4B-05</t>
+          <t>Point MM-756 Black (52756)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
@@ -4814,14 +4816,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3.95</v>
+        <v>2.26</v>
       </c>
       <c r="I86" t="n">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
@@ -4833,10 +4835,10 @@
         <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>1605654</v>
+        <v>620102</v>
       </c>
       <c r="N86" t="n">
-        <v>9330462</v>
+        <v>4085857</v>
       </c>
     </row>
     <row r="87">
@@ -4847,16 +4849,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
+          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
@@ -4864,14 +4866,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I87" t="n">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
@@ -4880,15 +4882,13 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>40</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>U0720798</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="M87" t="n">
+        <v>207633</v>
       </c>
       <c r="N87" t="n">
-        <v>10063053</v>
+        <v>2823917</v>
       </c>
     </row>
     <row r="88">
@@ -4899,16 +4899,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GENIUS</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DX-125 USB Black (31010106100)</t>
+          <t>Мишка Defender Accura MM-935, 4кн., 1600dpi, сіра (52936)</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
@@ -4916,29 +4916,29 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2.36</v>
+        <v>3.34</v>
       </c>
       <c r="I88" t="n">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="M88" t="n">
-        <v>6261261</v>
+        <v>164179</v>
       </c>
       <c r="N88" t="n">
-        <v>1839100</v>
+        <v>2550713</v>
       </c>
     </row>
     <row r="89">
@@ -4949,16 +4949,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GLORIOUS</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Model O Matte White (GO-White)</t>
+          <t>MUSW-4B-05</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1999</v>
+        <v>159</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
@@ -4966,14 +4966,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>48.06</v>
+        <v>3.95</v>
       </c>
       <c r="I89" t="n">
-        <v>1836</v>
+        <v>151</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
@@ -4985,10 +4985,10 @@
         <v>5</v>
       </c>
       <c r="M89" t="n">
-        <v>64374</v>
+        <v>1605654</v>
       </c>
       <c r="N89" t="n">
-        <v>4212244</v>
+        <v>9330462</v>
       </c>
     </row>
     <row r="90">
@@ -4999,16 +4999,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
+          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>799</v>
+        <v>199</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
@@ -5016,29 +5016,31 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>16.2</v>
+        <v>5.5</v>
       </c>
       <c r="I90" t="n">
-        <v>619</v>
+        <v>204</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>5</v>
-      </c>
-      <c r="M90" t="n">
-        <v>66042</v>
+        <v>40</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>U0720798</t>
+        </is>
       </c>
       <c r="N90" t="n">
-        <v>9400866</v>
+        <v>10063053</v>
       </c>
     </row>
     <row r="91">
@@ -5049,16 +5051,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>GENIUS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
+          <t>DX-125 USB Black (31010106100)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1599</v>
+        <v>109</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
@@ -5066,29 +5068,29 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.8%</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>32.42</v>
+        <v>2.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1200</v>
+        <v>91</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M91" t="n">
-        <v>66038</v>
+        <v>6261261</v>
       </c>
       <c r="N91" t="n">
-        <v>9303637</v>
+        <v>1839100</v>
       </c>
     </row>
     <row r="92">
@@ -5099,16 +5101,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>GLORIOUS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
+          <t>Model O Matte White (GO-White)</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>249</v>
+        <v>1999</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
@@ -5116,29 +5118,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-13.0%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>7.24</v>
+        <v>48.06</v>
       </c>
       <c r="I92" t="n">
-        <v>286</v>
+        <v>1836</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="M92" t="n">
-        <v>810643</v>
+        <v>64374</v>
       </c>
       <c r="N92" t="n">
-        <v>6899120</v>
+        <v>4212244</v>
       </c>
     </row>
     <row r="93">
@@ -5149,48 +5151,46 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IMICE</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>E-1800 Black</t>
+          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>149</v>
+        <v>799</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>29.1%</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>4.5</v>
+        <v>16.2</v>
       </c>
       <c r="I93" t="n">
-        <v>122</v>
+        <v>619</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>754</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>5dd3b30f5ca49a0052a3ff8e</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>66042</v>
       </c>
       <c r="N93" t="n">
-        <v>5044681</v>
+        <v>9400866</v>
       </c>
     </row>
     <row r="94">
@@ -5201,16 +5201,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Legion M600s Wireless GM (GY51H47354)</t>
+          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2799</v>
+        <v>1599</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -5218,14 +5218,14 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>77.81999999999999</v>
+        <v>32.42</v>
       </c>
       <c r="I94" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
@@ -5234,13 +5234,13 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M94" t="n">
-        <v>3717833</v>
+        <v>66038</v>
       </c>
       <c r="N94" t="n">
-        <v>9367262</v>
+        <v>9303637</v>
       </c>
     </row>
     <row r="95">
@@ -5251,16 +5251,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>HEWLETT PACKARD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G502 Hero USB Black</t>
+          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1899</v>
+        <v>249</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
@@ -5268,29 +5268,29 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-13.0%</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>53</v>
+        <v>7.24</v>
       </c>
       <c r="I95" t="n">
-        <v>1999</v>
+        <v>286</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="M95" t="n">
-        <v>246576</v>
+        <v>810643</v>
       </c>
       <c r="N95" t="n">
-        <v>-3143597</v>
+        <v>6899120</v>
       </c>
     </row>
     <row r="96">
@@ -5301,46 +5301,48 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>IMICE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pebble M350 Wireless Lavender Lemonade (910-006752)</t>
+          <t>E-1800 Black</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>779</v>
+        <v>149</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>19.37</v>
+        <v>4.5</v>
       </c>
       <c r="I96" t="n">
-        <v>731</v>
+        <v>122</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>11</v>
-      </c>
-      <c r="M96" t="n">
-        <v>435525</v>
+        <v>754</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>5dd3b30f5ca49a0052a3ff8e</t>
+        </is>
       </c>
       <c r="N96" t="n">
-        <v>9287953</v>
+        <v>5044681</v>
       </c>
     </row>
     <row r="97">
@@ -5351,16 +5353,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Мышь POP Mouse with emoji pink (910-006548)</t>
+          <t>Legion M600s Wireless GM (GY51H47354)</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1279</v>
+        <v>2799</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
@@ -5368,14 +5370,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>33.91</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="I97" t="n">
-        <v>1279</v>
+        <v>2880</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
@@ -5384,15 +5386,13 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>5</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>6467675|78c976bc-5e63-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3717833</v>
       </c>
       <c r="N97" t="n">
-        <v>8452961</v>
+        <v>9367262</v>
       </c>
     </row>
     <row r="98">
@@ -5403,16 +5403,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEDIA-TECH</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Мишка Media-Tech Cobra Pro, 3200dpi, 6 кн., чорна (MT1115)</t>
+          <t>G502 Hero USB Black</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>239</v>
+        <v>1899</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
@@ -5420,29 +5420,29 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>6.09</v>
+        <v>53</v>
       </c>
       <c r="I98" t="n">
-        <v>230</v>
+        <v>1999</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M98" t="n">
-        <v>150729</v>
+        <v>246576</v>
       </c>
       <c r="N98" t="n">
-        <v>2449527</v>
+        <v>-3143597</v>
       </c>
     </row>
     <row r="99">
@@ -5453,16 +5453,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
+          <t>Pebble M350 Wireless Lavender Lemonade (910-006752)</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1099</v>
+        <v>779</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
@@ -5470,14 +5470,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-36.6%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>44.7</v>
+        <v>19.37</v>
       </c>
       <c r="I99" t="n">
-        <v>1733</v>
+        <v>731</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
@@ -5486,15 +5486,13 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>152</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>S12-0400D20-C54</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="M99" t="n">
+        <v>435525</v>
       </c>
       <c r="N99" t="n">
-        <v>8517305</v>
+        <v>9287953</v>
       </c>
     </row>
     <row r="100">
@@ -5505,16 +5503,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Мышь Basilisk V3 (RZ01-04000100-R3M1)</t>
+          <t>Мышь POP Mouse with emoji pink (910-006548)</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2499</v>
+        <v>1279</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
@@ -5522,14 +5520,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>55.68</v>
+        <v>33.91</v>
       </c>
       <c r="I100" t="n">
-        <v>2100</v>
+        <v>1279</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
@@ -5538,13 +5536,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>14</v>
-      </c>
-      <c r="M100" t="n">
-        <v>65637</v>
+        <v>5</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>6467675|78c976bc-5e63-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N100" t="n">
-        <v>7721699</v>
+        <v>8452961</v>
       </c>
     </row>
     <row r="101">
@@ -5555,16 +5555,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>STEELSERIES</t>
+          <t>MEDIA-TECH</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Aerox 3 Wireless Snow (62608)</t>
+          <t>Мишка Media-Tech Cobra Pro, 3200dpi, 6 кн., чорна (MT1115)</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2999</v>
+        <v>239</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
@@ -5572,14 +5572,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-11.8%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>95.75</v>
+        <v>6.09</v>
       </c>
       <c r="I101" t="n">
-        <v>3400</v>
+        <v>230</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
@@ -5588,13 +5588,13 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="M101" t="n">
-        <v>65785</v>
+        <v>150729</v>
       </c>
       <c r="N101" t="n">
-        <v>8355465</v>
+        <v>2449527</v>
       </c>
     </row>
     <row r="102">
@@ -5605,16 +5605,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>STEELSERIES</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rival 5 (62551)</t>
+          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2999</v>
+        <v>1099</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
@@ -5622,14 +5622,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>86.3%</t>
+          <t>-36.6%</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>58.63</v>
+        <v>44.7</v>
       </c>
       <c r="I102" t="n">
-        <v>1610</v>
+        <v>1733</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
@@ -5638,13 +5638,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>623</v>
-      </c>
-      <c r="M102" t="n">
-        <v>65549</v>
+        <v>152</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>S12-0400D20-C54</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>7128903</v>
+        <v>8517305</v>
       </c>
     </row>
     <row r="103">
@@ -5655,16 +5657,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
+          <t>Мышь Basilisk V3 (RZ01-04000100-R3M1)</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>199</v>
+        <v>2499</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
@@ -5672,14 +5674,14 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-18.7%</t>
+          <t>19.0%</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>6.6</v>
+        <v>55.68</v>
       </c>
       <c r="I103" t="n">
-        <v>245</v>
+        <v>2100</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
@@ -5688,13 +5690,13 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M103" t="n">
-        <v>6378232</v>
+        <v>65637</v>
       </c>
       <c r="N103" t="n">
-        <v>2810008</v>
+        <v>7721699</v>
       </c>
     </row>
     <row r="104">
@@ -5705,16 +5707,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>VERTUX</t>
+          <t>STEELSERIES</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Dominator USB Grey</t>
+          <t>Aerox 3 Wireless Snow (62608)</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>649</v>
+        <v>2999</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
@@ -5722,14 +5724,14 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>40.3%</t>
+          <t>-11.8%</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>12.26</v>
+        <v>95.75</v>
       </c>
       <c r="I104" t="n">
-        <v>463</v>
+        <v>3400</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -5738,50 +5740,48 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>110</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
-        </is>
+        <v>391</v>
+      </c>
+      <c r="M104" t="n">
+        <v>65785</v>
       </c>
       <c r="N104" t="n">
-        <v>7309538</v>
+        <v>8355465</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>STEELSERIES</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Journey 6шт. (50415)</t>
+          <t>Rival 5 (62551)</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>79</v>
+        <v>2999</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>9.1%</t>
+          <t>86.3%</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1.95</v>
+        <v>58.63</v>
       </c>
       <c r="I105" t="n">
-        <v>73</v>
+        <v>1610</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
@@ -5790,33 +5790,33 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>54</v>
+        <v>623</v>
       </c>
       <c r="M105" t="n">
-        <v>132815</v>
+        <v>65549</v>
       </c>
       <c r="N105" t="n">
-        <v>1714050</v>
+        <v>7128903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Notebook Microfiber</t>
+          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>33.0%</t>
+          <t>-18.7%</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1.57</v>
+        <v>6.6</v>
       </c>
       <c r="I106" t="n">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
@@ -5840,33 +5840,33 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="M106" t="n">
-        <v>5780304</v>
+        <v>6378232</v>
       </c>
       <c r="N106" t="n">
-        <v>752893</v>
+        <v>2810008</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>VERTUX</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>School (в ассортименте) (50305)</t>
+          <t>Dominator USB Grey</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>39</v>
+        <v>649</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
@@ -5874,14 +5874,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>49.8%</t>
+          <t>40.3%</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.6899999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="I107" t="n">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
@@ -5890,11 +5890,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>19</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
+        </is>
+      </c>
       <c r="N107" t="n">
-        <v>754119</v>
+        <v>7309538</v>
       </c>
     </row>
     <row r="108">
@@ -5905,31 +5909,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
+          <t>Journey 6шт. (50415)</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1699</v>
+        <v>79</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-17.2%</t>
+          <t>9.1%</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>55.14</v>
+        <v>1.95</v>
       </c>
       <c r="I108" t="n">
-        <v>2052</v>
+        <v>73</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
@@ -5938,15 +5942,13 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>97</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>L943-000457</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="M108" t="n">
+        <v>132815</v>
       </c>
       <c r="N108" t="n">
-        <v>7515973</v>
+        <v>1714050</v>
       </c>
     </row>
     <row r="109">
@@ -5957,16 +5959,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
+          <t>Notebook Microfiber</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1199</v>
+        <v>79</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
@@ -5974,14 +5976,14 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>35.4%</t>
+          <t>33.0%</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>23.48</v>
+        <v>1.57</v>
       </c>
       <c r="I109" t="n">
-        <v>886</v>
+        <v>60</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
@@ -5990,15 +5992,13 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>5</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5780304</v>
       </c>
       <c r="N109" t="n">
-        <v>8452967</v>
+        <v>752893</v>
       </c>
     </row>
     <row r="110">
@@ -6009,16 +6009,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
+          <t>School (в ассортименте) (50305)</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2799</v>
+        <v>39</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
@@ -6026,14 +6026,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>49.8%</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>69.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>1890</v>
+        <v>27</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
@@ -6042,33 +6042,31 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>782</v>
-      </c>
-      <c r="M110" t="n">
-        <v>64013</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>4161739</v>
+        <v>754119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BOROFONE</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BW26 White (BW26W)</t>
+          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>339</v>
+        <v>1699</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
@@ -6076,49 +6074,51 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>-17.2%</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>8</v>
+        <v>55.14</v>
       </c>
       <c r="I111" t="n">
-        <v>296</v>
+        <v>2052</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>63</v>
-      </c>
-      <c r="M111" t="n">
-        <v>24160</v>
+        <v>97</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>L943-000457</t>
+        </is>
       </c>
       <c r="N111" t="n">
-        <v>9599567</v>
+        <v>7515973</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CNE-CEPM01B Black</t>
+          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>169</v>
+        <v>1199</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
@@ -6126,49 +6126,51 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>35.4%</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>3.55</v>
+        <v>23.48</v>
       </c>
       <c r="I112" t="n">
-        <v>136</v>
+        <v>886</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L112" t="n">
         <v>5</v>
       </c>
-      <c r="M112" t="n">
-        <v>53945</v>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N112" t="n">
-        <v>5221340</v>
+        <v>8452967</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TWS-6 Black (CNS-TWS6B)</t>
+          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>619</v>
+        <v>2799</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
@@ -6176,31 +6178,29 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>16.84</v>
+        <v>69.23</v>
       </c>
       <c r="I113" t="n">
-        <v>644</v>
+        <v>1890</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>5</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>CNS-TWS6B</t>
-        </is>
+        <v>782</v>
+      </c>
+      <c r="M113" t="n">
+        <v>64013</v>
       </c>
       <c r="N113" t="n">
-        <v>9793596</v>
+        <v>4161739</v>
       </c>
     </row>
     <row r="114">
@@ -6211,16 +6211,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>BOROFONE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hypergang 7.1 USB Black (HTA-840)</t>
+          <t>BW26 White (BW26W)</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2199</v>
+        <v>339</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
@@ -6228,14 +6228,14 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>14.5%</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>45.66</v>
+        <v>8</v>
       </c>
       <c r="I114" t="n">
-        <v>1690</v>
+        <v>296</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
@@ -6244,13 +6244,13 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M114" t="n">
-        <v>453818</v>
+        <v>24160</v>
       </c>
       <c r="N114" t="n">
-        <v>9769963</v>
+        <v>9599567</v>
       </c>
     </row>
     <row r="115">
@@ -6261,16 +6261,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Hypergang EVO (HTA-810)</t>
+          <t>CNE-CEPM01B Black</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1699</v>
+        <v>169</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
@@ -6278,29 +6278,29 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>35.12</v>
+        <v>3.55</v>
       </c>
       <c r="I115" t="n">
-        <v>1300</v>
+        <v>136</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="M115" t="n">
-        <v>294440</v>
+        <v>53945</v>
       </c>
       <c r="N115" t="n">
-        <v>4205308</v>
+        <v>5221340</v>
       </c>
     </row>
     <row r="116">
@@ -6311,16 +6311,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Hypergang EVO Elite Black (HTA-830)</t>
+          <t>TWS-6 Black (CNS-TWS6B)</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1999</v>
+        <v>619</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
@@ -6328,29 +6328,31 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>33.7%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>40.39</v>
+        <v>16.84</v>
       </c>
       <c r="I116" t="n">
-        <v>1495</v>
+        <v>644</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>54</v>
-      </c>
-      <c r="M116" t="n">
-        <v>65623</v>
+        <v>5</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>CNS-TWS6B</t>
+        </is>
       </c>
       <c r="N116" t="n">
-        <v>8355541</v>
+        <v>9793596</v>
       </c>
     </row>
     <row r="117">
@@ -6361,16 +6363,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HOCO</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EW29 White</t>
+          <t>Hypergang 7.1 USB Black (HTA-840)</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>489</v>
+        <v>2199</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
@@ -6378,29 +6380,29 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>11.55</v>
+        <v>45.66</v>
       </c>
       <c r="I117" t="n">
-        <v>442</v>
+        <v>1690</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="M117" t="n">
-        <v>24602</v>
+        <v>453818</v>
       </c>
       <c r="N117" t="n">
-        <v>10660638</v>
+        <v>9769963</v>
       </c>
     </row>
     <row r="118">
@@ -6411,16 +6413,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
+          <t>Hypergang EVO (HTA-810)</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4999</v>
+        <v>1699</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
@@ -6428,31 +6430,29 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>102.65</v>
+        <v>35.12</v>
       </c>
       <c r="I118" t="n">
-        <v>3799</v>
+        <v>1300</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>42</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>JBLLIVEFLEXBLK</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="M118" t="n">
+        <v>294440</v>
       </c>
       <c r="N118" t="n">
-        <v>10160854</v>
+        <v>4205308</v>
       </c>
     </row>
     <row r="119">
@@ -6463,16 +6463,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>T110 Black (JBLT110BLK)</t>
+          <t>Hypergang EVO Elite Black (HTA-830)</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>299</v>
+        <v>1999</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
@@ -6480,14 +6480,14 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>33.7%</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>6</v>
+        <v>40.39</v>
       </c>
       <c r="I119" t="n">
-        <v>222</v>
+        <v>1495</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
@@ -6496,13 +6496,13 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M119" t="n">
-        <v>275085</v>
+        <v>65623</v>
       </c>
       <c r="N119" t="n">
-        <v>2085204</v>
+        <v>8355541</v>
       </c>
     </row>
     <row r="120">
@@ -6513,16 +6513,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HOCO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
+          <t>EW29 White</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1699</v>
+        <v>489</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
@@ -6530,29 +6530,29 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>10.8%</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>36.2</v>
+        <v>11.55</v>
       </c>
       <c r="I120" t="n">
-        <v>1365</v>
+        <v>442</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M120" t="n">
-        <v>1392907</v>
+        <v>24602</v>
       </c>
       <c r="N120" t="n">
-        <v>9865027</v>
+        <v>10660638</v>
       </c>
     </row>
     <row r="121">
@@ -6563,16 +6563,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Essential Stereo Headset (4XD0K25030)</t>
+          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>589</v>
+        <v>4999</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
@@ -6580,14 +6580,14 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-33.0%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>23.76</v>
+        <v>102.65</v>
       </c>
       <c r="I121" t="n">
-        <v>880</v>
+        <v>3799</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
@@ -6596,13 +6596,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>52</v>
-      </c>
-      <c r="M121" t="n">
-        <v>3712243</v>
+        <v>42</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXBLK</t>
+        </is>
       </c>
       <c r="N121" t="n">
-        <v>6907039</v>
+        <v>10160854</v>
       </c>
     </row>
     <row r="122">
@@ -6613,16 +6615,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RP-HJE125E Blue</t>
+          <t>T110 Black (JBLT110BLK)</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
@@ -6630,27 +6632,29 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>34.6%</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>90</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="M122" t="n">
+        <v>275085</v>
+      </c>
       <c r="N122" t="n">
-        <v>571150</v>
+        <v>2085204</v>
       </c>
     </row>
     <row r="123">
@@ -6661,16 +6665,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>RP-HJE125E Pink</t>
+          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>199</v>
+        <v>1699</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
@@ -6678,29 +6682,29 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-23.0%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>6.66</v>
+        <v>36.2</v>
       </c>
       <c r="I123" t="n">
-        <v>259</v>
+        <v>1365</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="M123" t="n">
-        <v>6040397</v>
+        <v>1392907</v>
       </c>
       <c r="N123" t="n">
-        <v>571148</v>
+        <v>9865027</v>
       </c>
     </row>
     <row r="124">
@@ -6711,16 +6715,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>RP-HJE125E Red</t>
+          <t>Essential Stereo Headset (4XD0K25030)</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>199</v>
+        <v>589</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
@@ -6728,27 +6732,29 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-23.0%</t>
+          <t>-33.0%</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>6.66</v>
+        <v>23.76</v>
       </c>
       <c r="I124" t="n">
-        <v>259</v>
+        <v>880</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>153</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="M124" t="n">
+        <v>3712243</v>
+      </c>
       <c r="N124" t="n">
-        <v>572643</v>
+        <v>6907039</v>
       </c>
     </row>
     <row r="125">
@@ -6764,7 +6770,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>RP-HJE125E Violet</t>
+          <t>RP-HJE125E Blue</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -6776,14 +6782,14 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-20.9%</t>
+          <t>-19.8%</t>
         </is>
       </c>
       <c r="H125" t="n">
         <v>6.66</v>
       </c>
       <c r="I125" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
@@ -6792,11 +6798,11 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
-        <v>571147</v>
+        <v>571150</v>
       </c>
     </row>
     <row r="126">
@@ -6812,11 +6818,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
+          <t>RP-HJE125E Pink</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
@@ -6824,29 +6830,29 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-23.0%</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>6.81</v>
+        <v>6.66</v>
       </c>
       <c r="I126" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="M126" t="n">
-        <v>93705</v>
+        <v>6040397</v>
       </c>
       <c r="N126" t="n">
-        <v>9194307</v>
+        <v>571148</v>
       </c>
     </row>
     <row r="127">
@@ -6857,16 +6863,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PHILIPS</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SHP2500/10</t>
+          <t>RP-HJE125E Red</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>899</v>
+        <v>199</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
@@ -6874,27 +6880,27 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10.4%</t>
+          <t>-23.0%</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>22</v>
+        <v>6.66</v>
       </c>
       <c r="I127" t="n">
-        <v>814</v>
+        <v>259</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>198674</v>
+        <v>572643</v>
       </c>
     </row>
     <row r="128">
@@ -6905,16 +6911,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PROMATE</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Наушники Terra red (terra.maroon)</t>
+          <t>RP-HJE125E Violet</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>699</v>
+        <v>199</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
@@ -6922,31 +6928,27 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-22.4%</t>
+          <t>-20.9%</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>22.78</v>
+        <v>6.66</v>
       </c>
       <c r="I128" t="n">
-        <v>900</v>
+        <v>252</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>244</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
-        <v>9099706</v>
+        <v>571147</v>
       </c>
     </row>
     <row r="129">
@@ -6957,16 +6959,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>QCY</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HT05 White</t>
+          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>999</v>
+        <v>259</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
@@ -6974,29 +6976,29 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>26</v>
+        <v>6.81</v>
       </c>
       <c r="I129" t="n">
-        <v>994</v>
+        <v>252</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="M129" t="n">
-        <v>414802</v>
+        <v>93705</v>
       </c>
       <c r="N129" t="n">
-        <v>8911432</v>
+        <v>9194307</v>
       </c>
     </row>
     <row r="130">
@@ -7007,16 +7009,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>PHILIPS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Гарнитура Hammerhead True Wireless X (RZ12-03830100-R3G1)</t>
+          <t>SHP2500/10</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2299</v>
+        <v>899</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
@@ -7024,14 +7026,14 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>54.95</v>
+        <v>22</v>
       </c>
       <c r="I130" t="n">
-        <v>2100</v>
+        <v>814</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
@@ -7040,13 +7042,11 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>5</v>
-      </c>
-      <c r="M130" t="n">
-        <v>65594</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>7130817</v>
+        <v>198674</v>
       </c>
     </row>
     <row r="131">
@@ -7057,16 +7057,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HDR 175</t>
+          <t>Наушники Terra red (terra.maroon)</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3999</v>
+        <v>699</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
@@ -7074,29 +7074,31 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-28.3%</t>
+          <t>-22.4%</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>141.2</v>
+        <v>22.78</v>
       </c>
       <c r="I131" t="n">
-        <v>5578</v>
+        <v>900</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>286</v>
-      </c>
-      <c r="M131" t="n">
-        <v>505582</v>
+        <v>244</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N131" t="n">
-        <v>-1282398</v>
+        <v>9099706</v>
       </c>
     </row>
     <row r="132">
@@ -7107,16 +7109,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>QCY</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RS 120-8 II</t>
+          <t>HT05 White</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1249</v>
+        <v>999</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
@@ -7124,27 +7126,29 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-51.6%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>96.09</v>
+        <v>26</v>
       </c>
       <c r="I132" t="n">
-        <v>2581</v>
+        <v>994</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>385</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M132" t="n">
+        <v>414802</v>
+      </c>
       <c r="N132" t="n">
-        <v>-47653</v>
+        <v>8911432</v>
       </c>
     </row>
     <row r="133">
@@ -7155,16 +7159,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>R24 type-C with mic white (WUW-R24)</t>
+          <t>Гарнитура Hammerhead True Wireless X (RZ12-03830100-R3G1)</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>49</v>
+        <v>2299</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
@@ -7172,14 +7176,14 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22.9%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0.99</v>
+        <v>54.95</v>
       </c>
       <c r="I133" t="n">
-        <v>40</v>
+        <v>2100</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
@@ -7188,13 +7192,13 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="M133" t="n">
-        <v>113920</v>
+        <v>65594</v>
       </c>
       <c r="N133" t="n">
-        <v>6810524</v>
+        <v>7130817</v>
       </c>
     </row>
     <row r="134">
@@ -7205,16 +7209,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>R31 with mic white (WUW-R31)</t>
+          <t>HDR 175</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>59</v>
+        <v>3999</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
@@ -7222,29 +7226,29 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>-28.3%</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>1.15</v>
+        <v>141.2</v>
       </c>
       <c r="I134" t="n">
-        <v>44</v>
+        <v>5578</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="M134" t="n">
-        <v>113918</v>
+        <v>505582</v>
       </c>
       <c r="N134" t="n">
-        <v>6810525</v>
+        <v>-1282398</v>
       </c>
     </row>
     <row r="135">
@@ -7255,16 +7259,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Mi Piston Fresh Bloom Matte Silver (ZBW4355TY)</t>
+          <t>RS 120-8 II</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>229</v>
+        <v>1249</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
@@ -7272,31 +7276,27 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>-51.6%</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>4.59</v>
+        <v>96.09</v>
       </c>
       <c r="I135" t="n">
-        <v>174</v>
+        <v>2581</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>16</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Р29346</t>
-        </is>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>2078649</v>
+        <v>-47653</v>
       </c>
     </row>
     <row r="136">
@@ -7307,16 +7307,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
+          <t>R24 type-C with mic white (WUW-R24)</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1399</v>
+        <v>49</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
@@ -7324,64 +7324,64 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>22.9%</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>36.5</v>
+        <v>0.99</v>
       </c>
       <c r="I136" t="n">
-        <v>1351</v>
+        <v>40</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="M136" t="n">
-        <v>851916</v>
+        <v>113920</v>
       </c>
       <c r="N136" t="n">
-        <v>7537064</v>
+        <v>6810524</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
+          <t>R31 with mic white (WUW-R31)</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6749</v>
+        <v>59</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-6.9%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>196</v>
+        <v>1.15</v>
       </c>
       <c r="I137" t="n">
-        <v>7252</v>
+        <v>44</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
@@ -7390,21 +7390,19 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>35</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>STH0010456</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>113918</v>
       </c>
       <c r="N137" t="n">
-        <v>8673211</v>
+        <v>6810525</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7414,11 +7412,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Redmi Pad 3/64GB Mint Green</t>
+          <t>Mi Piston Fresh Bloom Matte Silver (ZBW4355TY)</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6499</v>
+        <v>229</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
@@ -7426,49 +7424,51 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>173</v>
+        <v>4.59</v>
       </c>
       <c r="I138" t="n">
-        <v>6401</v>
+        <v>174</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>27</v>
-      </c>
-      <c r="M138" t="n">
-        <v>954472</v>
+        <v>16</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Р29346</t>
+        </is>
       </c>
       <c r="N138" t="n">
-        <v>9166825</v>
+        <v>2078649</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
+          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>849</v>
+        <v>1399</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
@@ -7476,64 +7476,64 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-26.8%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="I139" t="n">
-        <v>1160</v>
+        <v>1351</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="M139" t="n">
-        <v>383083</v>
+        <v>851916</v>
       </c>
       <c r="N139" t="n">
-        <v>8143539</v>
+        <v>7537064</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BLACKVIEW</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>A55 Pro 4/64GB Cloud White</t>
+          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3549</v>
+        <v>6749</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-6.9%</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>94.2</v>
+        <v>196</v>
       </c>
       <c r="I140" t="n">
-        <v>3486</v>
+        <v>7252</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
@@ -7542,35 +7542,35 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>STH0012050</t>
+          <t>STH0010456</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>8785221</v>
+        <v>8673211</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>S60 Black</t>
+          <t>Redmi Pad 3/64GB Mint Green</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>11499</v>
+        <v>6499</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
@@ -7578,49 +7578,49 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-32.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>439</v>
+        <v>173</v>
       </c>
       <c r="I141" t="n">
-        <v>17121</v>
+        <v>6401</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="M141" t="n">
-        <v>47732</v>
+        <v>954472</v>
       </c>
       <c r="N141" t="n">
-        <v>-1908276</v>
+        <v>9166825</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>J10 1/32GB Green</t>
+          <t>Pro A8-8670E (AD867BAHM44AB)</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1899</v>
+        <v>849</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
@@ -7628,14 +7628,14 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>-26.8%</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I142" t="n">
-        <v>1810</v>
+        <v>1160</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
@@ -7644,15 +7644,13 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>26</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>STH0010228</t>
-        </is>
+        <v>189</v>
+      </c>
+      <c r="M142" t="n">
+        <v>383083</v>
       </c>
       <c r="N142" t="n">
-        <v>8477076</v>
+        <v>8143539</v>
       </c>
     </row>
     <row r="143">
@@ -7663,16 +7661,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>BLACKVIEW</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Note 9 3/32GB Black</t>
+          <t>A55 Pro 4/64GB Cloud White</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3199</v>
+        <v>3549</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
@@ -7680,29 +7678,31 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-16.1%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>103</v>
+        <v>94.2</v>
       </c>
       <c r="I143" t="n">
-        <v>3811</v>
+        <v>3486</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>70</v>
-      </c>
-      <c r="M143" t="n">
-        <v>747835</v>
+        <v>27</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>STH0012050</t>
+        </is>
       </c>
       <c r="N143" t="n">
-        <v>-7601530</v>
+        <v>8785221</v>
       </c>
     </row>
     <row r="144">
@@ -7713,16 +7713,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GOOGLE</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pixel 5 8/128Gb Sorta Sage Global Version</t>
+          <t>S60 Black</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>10099</v>
+        <v>11499</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
@@ -7730,14 +7730,14 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-32.8%</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="I144" t="n">
-        <v>10217</v>
+        <v>17121</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
@@ -7746,13 +7746,13 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="M144" t="n">
-        <v>745831</v>
+        <v>47732</v>
       </c>
       <c r="N144" t="n">
-        <v>-5866565</v>
+        <v>-1908276</v>
       </c>
     </row>
     <row r="145">
@@ -7763,16 +7763,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>INFINIX</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hot 11 4/128GB Blue Global Version</t>
+          <t>J10 1/32GB Green</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3799</v>
+        <v>1899</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
@@ -7780,29 +7780,31 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-19.2%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>127.03</v>
+        <v>48</v>
       </c>
       <c r="I145" t="n">
-        <v>4701</v>
+        <v>1810</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>79</v>
-      </c>
-      <c r="M145" t="n">
-        <v>409959</v>
+        <v>26</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>STH0010228</t>
+        </is>
       </c>
       <c r="N145" t="n">
-        <v>-8782537</v>
+        <v>8477076</v>
       </c>
     </row>
     <row r="146">
@@ -7813,16 +7815,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LAND ROVER</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>T3 Black</t>
+          <t>Note 9 3/32GB Black</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1099</v>
+        <v>3199</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
@@ -7830,14 +7832,14 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-12.7%</t>
+          <t>-16.1%</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="I146" t="n">
-        <v>1258</v>
+        <v>3811</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
@@ -7846,15 +7848,13 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>14</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>6009b371fc0d3022243dde9c</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="M146" t="n">
+        <v>747835</v>
       </c>
       <c r="N146" t="n">
-        <v>-6002172</v>
+        <v>-7601530</v>
       </c>
     </row>
     <row r="147">
@@ -7865,16 +7865,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>GOOGLE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Classic MM142 Gray</t>
+          <t>Pixel 5 8/128Gb Sorta Sage Global Version</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>649</v>
+        <v>10099</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
@@ -7882,31 +7882,29 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>15.78</v>
+        <v>271</v>
       </c>
       <c r="I147" t="n">
-        <v>595</v>
+        <v>10217</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>25</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>00-00039645</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M147" t="n">
+        <v>745831</v>
       </c>
       <c r="N147" t="n">
-        <v>3243072</v>
+        <v>-5866565</v>
       </c>
     </row>
     <row r="148">
@@ -7917,16 +7915,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>INFINIX</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2023 Red</t>
+          <t>Hot 11 4/128GB Blue Global Version</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>829</v>
+        <v>3799</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
@@ -7934,29 +7932,29 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>-19.2%</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>21.34</v>
+        <v>127.03</v>
       </c>
       <c r="I148" t="n">
-        <v>790</v>
+        <v>4701</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M148" t="n">
-        <v>464897</v>
+        <v>409959</v>
       </c>
       <c r="N148" t="n">
-        <v>10295775</v>
+        <v>-8782537</v>
       </c>
     </row>
     <row r="149">
@@ -7967,16 +7965,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>LAND ROVER</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2660 Flip Black</t>
+          <t>T3 Black</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2349</v>
+        <v>1099</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
@@ -7984,31 +7982,31 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-12.7%</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>60.85</v>
+        <v>34</v>
       </c>
       <c r="I149" t="n">
-        <v>2264</v>
+        <v>1258</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>ТЛГ056822</t>
+          <t>6009b371fc0d3022243dde9c</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>9069980</v>
+        <v>-6002172</v>
       </c>
     </row>
     <row r="150">
@@ -8019,16 +8017,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>C30s 3/64GB Stripe Blue</t>
+          <t>Classic MM142 Gray</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3449</v>
+        <v>649</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
@@ -8036,14 +8034,14 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>9.0%</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>91.86</v>
+        <v>15.78</v>
       </c>
       <c r="I150" t="n">
-        <v>3399</v>
+        <v>595</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
@@ -8052,13 +8050,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>83</v>
-      </c>
-      <c r="M150" t="n">
-        <v>6872881</v>
+        <v>25</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>00-00039645</t>
+        </is>
       </c>
       <c r="N150" t="n">
-        <v>10151298</v>
+        <v>3243072</v>
       </c>
     </row>
     <row r="151">
@@ -8069,16 +8069,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G 8/256GB Light Blue (SM-A536ELBHSEK)</t>
+          <t>105 Dual Sim 2023 Red</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14799</v>
+        <v>829</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
@@ -8086,31 +8086,29 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>398</v>
+        <v>21.34</v>
       </c>
       <c r="I151" t="n">
-        <v>15005</v>
+        <v>790</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>17</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>U0637914</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="M151" t="n">
+        <v>464897</v>
       </c>
       <c r="N151" t="n">
-        <v>-8732080</v>
+        <v>10295775</v>
       </c>
     </row>
     <row r="152">
@@ -8121,16 +8119,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
+          <t>2660 Flip Black</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9399</v>
+        <v>2349</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
@@ -8138,31 +8136,31 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>325</v>
+        <v>60.85</v>
       </c>
       <c r="I152" t="n">
-        <v>12091</v>
+        <v>2264</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>STH0011954</t>
+          <t>ТЛГ056822</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>-8771626</v>
+        <v>9069980</v>
       </c>
     </row>
     <row r="153">
@@ -8173,16 +8171,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>REALME</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 128GB (SM-G988U) Gray 1Sim USA Open Box</t>
+          <t>C30s 3/64GB Stripe Blue</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>15999</v>
+        <v>3449</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
@@ -8190,14 +8188,14 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>388</v>
+        <v>91.86</v>
       </c>
       <c r="I153" t="n">
-        <v>14822</v>
+        <v>3399</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
@@ -8206,15 +8204,13 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>3</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>STH0013140</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="M153" t="n">
+        <v>6872881</v>
       </c>
       <c r="N153" t="n">
-        <v>9224348</v>
+        <v>10151298</v>
       </c>
     </row>
     <row r="154">
@@ -8225,16 +8221,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Black</t>
+          <t>Galaxy A53 5G 8/256GB Light Blue (SM-A536ELBHSEK)</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>999</v>
+        <v>14799</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
@@ -8242,31 +8238,31 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20.3%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>22.02</v>
+        <v>398</v>
       </c>
       <c r="I154" t="n">
-        <v>831</v>
+        <v>15005</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>ТЛГ057350</t>
+          <t>U0637914</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>9622881</v>
+        <v>-8732080</v>
       </c>
     </row>
     <row r="155">
@@ -8277,16 +8273,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Grey</t>
+          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>999</v>
+        <v>9399</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
@@ -8294,31 +8290,31 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>-22.3%</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>22.12</v>
+        <v>325</v>
       </c>
       <c r="I155" t="n">
-        <v>834</v>
+        <v>12091</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>U0760879</t>
+          <t>STH0011954</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>9529055</v>
+        <v>-8771626</v>
       </c>
     </row>
     <row r="156">
@@ -8329,16 +8325,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Purple</t>
+          <t>Galaxy S20 Ultra 128GB (SM-G988U) Gray 1Sim USA Open Box</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>999</v>
+        <v>15999</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
@@ -8346,14 +8342,14 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>22.43</v>
+        <v>388</v>
       </c>
       <c r="I156" t="n">
-        <v>846</v>
+        <v>14822</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
@@ -8362,13 +8358,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>13</v>
-      </c>
-      <c r="M156" t="n">
-        <v>448250</v>
+        <v>3</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>STH0013140</t>
+        </is>
       </c>
       <c r="N156" t="n">
-        <v>9532108</v>
+        <v>9224348</v>
       </c>
     </row>
     <row r="157">
@@ -8379,16 +8377,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TECNO</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Camon 19 Neo CH6i 6/128GB Eco Black (4895180783951)</t>
+          <t>X-Style 31 Power Type-C Black</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>5399</v>
+        <v>999</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
@@ -8396,14 +8394,14 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>150</v>
+        <v>22.02</v>
       </c>
       <c r="I157" t="n">
-        <v>5730</v>
+        <v>831</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
@@ -8412,15 +8410,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>U0653230</t>
+          <t>ТЛГ057350</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>8761059</v>
+        <v>9622881</v>
       </c>
     </row>
     <row r="158">
@@ -8431,16 +8429,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TECNO</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
+          <t>X-Style 31 Power Type-C Grey</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2899</v>
+        <v>999</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
@@ -8448,29 +8446,31 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>19.8%</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>93</v>
+        <v>22.12</v>
       </c>
       <c r="I158" t="n">
-        <v>3441</v>
+        <v>834</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>73</v>
-      </c>
-      <c r="M158" t="n">
-        <v>4895180777677</v>
+        <v>25</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>U0760879</t>
+        </is>
       </c>
       <c r="N158" t="n">
-        <v>-9150395</v>
+        <v>9529055</v>
       </c>
     </row>
     <row r="159">
@@ -8481,16 +8481,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>UMIDIGI</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>A11 3/64Gb Grey</t>
+          <t>X-Style 31 Power Type-C Purple</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3299</v>
+        <v>999</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
@@ -8498,14 +8498,14 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>18.1%</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>84</v>
+        <v>22.43</v>
       </c>
       <c r="I159" t="n">
-        <v>3167</v>
+        <v>846</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
@@ -8514,13 +8514,13 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M159" t="n">
-        <v>747654</v>
+        <v>448250</v>
       </c>
       <c r="N159" t="n">
-        <v>7148373</v>
+        <v>9532108</v>
       </c>
     </row>
     <row r="160">
@@ -8531,16 +8531,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
+          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5299</v>
+        <v>2899</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
@@ -8548,28 +8548,128 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-15.8%</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="I160" t="n">
-        <v>5254</v>
+        <v>3441</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L160" t="n">
+        <v>73</v>
+      </c>
+      <c r="M160" t="n">
+        <v>4895180777677</v>
+      </c>
+      <c r="N160" t="n">
+        <v>-9150395</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>UMIDIGI</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A11 3/64Gb Grey</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>84</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3167</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>7</v>
+      </c>
+      <c r="M161" t="n">
+        <v>747654</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7148373</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>5299</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>142</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5254</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
         <v>38</v>
       </c>
-      <c r="M160" t="n">
+      <c r="M162" t="n">
         <v>747544</v>
       </c>
-      <c r="N160" t="n">
+      <c r="N162" t="n">
         <v>6889368</v>
       </c>
     </row>
